--- a/Devoloper_files/sample_template/machine_operator.xlsx
+++ b/Devoloper_files/sample_template/machine_operator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokulhari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DAB92-AFE5-44C4-961B-45304E53837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F39BD-14AD-46C3-B8FF-049407651158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="2490" windowWidth="17145" windowHeight="11385" xr2:uid="{5B40B582-3B38-4FF4-8EEA-CABD028F2086}"/>
+    <workbookView xWindow="32205" yWindow="1785" windowWidth="22350" windowHeight="13035" xr2:uid="{5B40B582-3B38-4FF4-8EEA-CABD028F2086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +130,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +457,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,81 +473,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>6665</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>45165</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>5020</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>6857</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>7785</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>45165</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>5136</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>1022</v>
       </c>
     </row>
